--- a/INTLINE/data/536/IDSE/JKSE Composite Index - Daily.xlsx
+++ b/INTLINE/data/536/IDSE/JKSE Composite Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MZE2"/>
+  <dimension ref="A1:MZT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47699,15 +47699,90 @@
       </c>
       <c r="MZC1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="MZD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="MZE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="MZF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="MZG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="MZH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="MZI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="MZJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="MZK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="MZL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="MZM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="MZN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="MZO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="MZP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="MZQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="MZR1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="MZD1" s="1" t="inlineStr">
+      <c r="MZS1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="MZE1" s="1" t="inlineStr">
+      <c r="MZT1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -74896,19 +74971,64 @@
         <v>7148.3</v>
       </c>
       <c r="MZB2" t="n">
-        <v>7139.89</v>
-      </c>
-      <c r="MZC2" t="inlineStr">
+        <v>7104.22</v>
+      </c>
+      <c r="MZC2" t="n">
+        <v>7127.37</v>
+      </c>
+      <c r="MZD2" t="n">
+        <v>7210.83</v>
+      </c>
+      <c r="MZE2" t="n">
+        <v>7203.79</v>
+      </c>
+      <c r="MZF2" t="n">
+        <v>7214.78</v>
+      </c>
+      <c r="MZG2" t="n">
+        <v>7262.78</v>
+      </c>
+      <c r="MZH2" t="n">
+        <v>7235.53</v>
+      </c>
+      <c r="MZI2" t="n">
+        <v>7275.29</v>
+      </c>
+      <c r="MZJ2" t="n">
+        <v>7199.23</v>
+      </c>
+      <c r="MZK2" t="n">
+        <v>7227.36</v>
+      </c>
+      <c r="MZL2" t="n">
+        <v>7276.19</v>
+      </c>
+      <c r="MZM2" t="n">
+        <v>7225.61</v>
+      </c>
+      <c r="MZN2" t="n">
+        <v>7215.98</v>
+      </c>
+      <c r="MZO2" t="n">
+        <v>7232.15</v>
+      </c>
+      <c r="MZP2" t="n">
+        <v>7196.76</v>
+      </c>
+      <c r="MZQ2" t="n">
+        <v>7228.91</v>
+      </c>
+      <c r="MZR2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="MZD2" t="inlineStr">
+      <c r="MZS2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="MZE2" t="inlineStr">
+      <c r="MZT2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>

--- a/INTLINE/data/536/IDSE/JKSE Composite Index - Daily.xlsx
+++ b/INTLINE/data/536/IDSE/JKSE Composite Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NAX2"/>
+  <dimension ref="A1:NBA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47924,15 +47924,30 @@
       </c>
       <c r="NAV1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="NAW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="NAX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="NAY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="NAW1" s="1" t="inlineStr">
+      <c r="NAZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="NAX1" s="1" t="inlineStr">
+      <c r="NBA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -75256,19 +75271,28 @@
         <v>7044.07</v>
       </c>
       <c r="NAU2" t="n">
-        <v>7023.37</v>
-      </c>
-      <c r="NAV2" t="inlineStr">
+        <v>6984.31</v>
+      </c>
+      <c r="NAV2" t="n">
+        <v>6998.27</v>
+      </c>
+      <c r="NAW2" t="n">
+        <v>7042.94</v>
+      </c>
+      <c r="NAX2" t="n">
+        <v>7016.06</v>
+      </c>
+      <c r="NAY2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="NAW2" t="inlineStr">
+      <c r="NAZ2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="NAX2" t="inlineStr">
+      <c r="NBA2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>
